--- a/Data/EC/NIT-8903029554.xlsx
+++ b/Data/EC/NIT-8903029554.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4E4F2BE-33B6-483F-B5E9-507863CB2457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A06C6E-8919-4E1E-84C9-8718CCCD0A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EEC316CE-3FA4-432D-AE02-52D65E92AC92}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{27AA7234-56CF-48CF-8B0D-36A8BE10AA0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="137">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,340 +65,355 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45692624</t>
+  </si>
+  <si>
+    <t>GLORIA YANETH MENCO RODELO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>45529108</t>
+  </si>
+  <si>
+    <t>NORELIS ISABEL SAENZ OTERO</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>30771473</t>
+  </si>
+  <si>
+    <t>BETTY DEL SOCORRO LUNA CORONADO</t>
+  </si>
+  <si>
     <t>45499444</t>
   </si>
   <si>
     <t>MARIA TRINIDAD BLANCO ARIZA</t>
   </si>
   <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>45529108</t>
-  </si>
-  <si>
-    <t>NORELIS ISABEL SAENZ OTERO</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -812,7 +827,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E5DACD-7754-E7A2-FC26-463A66A3EE28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C84CC3-C05F-E987-3D94-C06FC9A9780E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,8 +1178,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC56425-077F-4935-B3AA-A85BDC505785}">
-  <dimension ref="B2:J169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8EB5CF-10F6-4A9F-9F98-45F56BBCF412}">
+  <dimension ref="B2:J183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1175,7 +1190,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1188,7 +1203,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1233,7 +1248,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1265,12 +1280,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4311338</v>
+        <v>4723256</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1281,17 +1296,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F13" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1318,13 +1333,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1341,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1364,7 +1379,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1387,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1410,7 +1425,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1433,7 +1448,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1456,7 +1471,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1470,19 +1485,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1493,19 +1508,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1516,19 +1531,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F24" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1539,19 +1554,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1562,19 +1577,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1585,19 +1600,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F27" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1608,19 +1623,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1631,19 +1646,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1654,19 +1669,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1677,19 +1692,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1700,19 +1715,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1723,19 +1738,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F33" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1746,19 +1761,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1769,19 +1784,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1792,19 +1807,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1815,19 +1830,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F37" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1838,19 +1853,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F38" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1861,19 +1876,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F39" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1884,19 +1899,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F40" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1907,19 +1922,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F41" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1930,19 +1945,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1953,19 +1968,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1976,19 +1991,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1999,19 +2014,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2022,19 +2037,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2045,19 +2060,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2068,19 +2083,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2091,19 +2106,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G49" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2114,19 +2129,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2137,19 +2152,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2160,19 +2175,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2183,19 +2198,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2206,19 +2221,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G54" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2229,19 +2244,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2252,19 +2267,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2275,19 +2290,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G57" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2298,19 +2313,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G58" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2321,19 +2336,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2344,19 +2359,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G60" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2367,19 +2382,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G61" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2390,19 +2405,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2413,19 +2428,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2436,19 +2451,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G64" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2459,19 +2474,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2482,19 +2497,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G66" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2505,19 +2520,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2528,19 +2543,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G68" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2551,13 +2566,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2574,13 +2589,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2597,13 +2612,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2620,13 +2635,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2643,13 +2658,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2666,13 +2681,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2689,13 +2704,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2712,13 +2727,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2735,13 +2750,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2758,13 +2773,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2781,13 +2796,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2804,13 +2819,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2827,13 +2842,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2850,13 +2865,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2873,13 +2888,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2896,19 +2911,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F84" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2919,13 +2934,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2942,19 +2957,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F86" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2965,13 +2980,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2988,19 +3003,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="F88" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3011,13 +3026,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -3034,19 +3049,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="F90" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3057,13 +3072,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3080,19 +3095,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="F92" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3103,13 +3118,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3126,19 +3141,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="F94" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3149,13 +3164,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3172,19 +3187,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F96" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3195,13 +3210,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3218,13 +3233,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3241,19 +3256,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="F99" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3264,13 +3279,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3287,19 +3302,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F101" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3310,13 +3325,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3333,19 +3348,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="F103" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3356,19 +3371,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="F104" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3379,13 +3394,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3402,13 +3417,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3425,19 +3440,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F107" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3448,13 +3463,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3471,19 +3486,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="F109" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3494,19 +3509,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="F110" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3517,13 +3532,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3540,19 +3555,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F112" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3563,13 +3578,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3586,13 +3601,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3609,19 +3624,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F115" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3632,19 +3647,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F116" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3655,13 +3670,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3678,13 +3693,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3701,19 +3716,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F119" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3724,19 +3739,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F120" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3747,13 +3762,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3770,13 +3785,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
@@ -3793,19 +3808,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F123" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3816,13 +3831,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
@@ -3839,19 +3854,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F125" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3862,13 +3877,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F126" s="18">
         <v>31249</v>
@@ -3885,19 +3900,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F127" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3908,13 +3923,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="F128" s="18">
         <v>31249</v>
@@ -3931,19 +3946,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F129" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3954,13 +3969,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -3977,19 +3992,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E131" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D131" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>104</v>
-      </c>
       <c r="F131" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4000,13 +4015,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -4023,19 +4038,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F133" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4046,13 +4061,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
@@ -4069,19 +4084,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F135" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4092,19 +4107,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F136" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4115,13 +4130,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4138,13 +4153,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4161,19 +4176,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F139" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G139" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4184,13 +4199,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4207,19 +4222,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F141" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4230,13 +4245,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4253,19 +4268,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F143" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4276,19 +4291,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F144" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G144" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4299,13 +4314,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4322,13 +4337,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4345,19 +4360,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F147" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G147" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4368,19 +4383,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F148" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G148" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4391,13 +4406,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4414,19 +4429,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F150" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G150" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4437,13 +4452,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4460,19 +4475,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F152" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G152" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4483,16 +4498,16 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F153" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G153" s="18">
         <v>781242</v>
@@ -4506,19 +4521,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F154" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G154" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4529,16 +4544,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F155" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G155" s="18">
         <v>781242</v>
@@ -4552,16 +4567,16 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F156" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G156" s="18">
         <v>781242</v>
@@ -4575,19 +4590,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F157" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G157" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4598,19 +4613,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F158" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G158" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4621,16 +4636,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F159" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G159" s="18">
         <v>781242</v>
@@ -4644,19 +4659,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F160" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G160" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4667,16 +4682,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F161" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G161" s="18">
         <v>781242</v>
@@ -4690,75 +4705,397 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F162" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G162" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
       <c r="J162" s="20"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B163" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E163" s="22" t="s">
+      <c r="B163" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F163" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G163" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="20"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B164" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F164" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G164" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="20"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B165" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F165" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G165" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="20"/>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B166" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F166" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G166" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="20"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B167" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F167" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G167" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="20"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B168" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F168" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G168" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="20"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B169" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F169" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G169" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="20"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B170" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F170" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G170" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="20"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B171" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F171" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G171" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="20"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B172" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E172" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F163" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G163" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H163" s="25"/>
-      <c r="I163" s="25"/>
-      <c r="J163" s="26"/>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B168" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C168" s="32"/>
-      <c r="H168" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B169" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C169" s="32"/>
-      <c r="H169" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
+      <c r="F172" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G172" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="20"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B173" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F173" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G173" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="20"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B174" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F174" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G174" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="20"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B175" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F175" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G175" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="20"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B176" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F176" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G176" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="20"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B177" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D177" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E177" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F177" s="24">
+        <v>24640</v>
+      </c>
+      <c r="G177" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="26"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B182" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C182" s="32"/>
+      <c r="H182" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B183" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C183" s="32"/>
+      <c r="H183" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="H169:J169"/>
-    <mergeCell ref="H168:J168"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="H183:J183"/>
+    <mergeCell ref="H182:J182"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8903029554.xlsx
+++ b/Data/EC/NIT-8903029554.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A06C6E-8919-4E1E-84C9-8718CCCD0A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD0808C3-6701-40DD-8EEB-6D6EC8B1A117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{27AA7234-56CF-48CF-8B0D-36A8BE10AA0E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8125A204-EF69-4697-A10F-437D2C919D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="134">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,355 +65,346 @@
     <t>CC</t>
   </si>
   <si>
-    <t>45692624</t>
-  </si>
-  <si>
-    <t>GLORIA YANETH MENCO RODELO</t>
+    <t>45499444</t>
+  </si>
+  <si>
+    <t>MARIA TRINIDAD BLANCO ARIZA</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>45529108</t>
+  </si>
+  <si>
+    <t>NORELIS ISABEL SAENZ OTERO</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>45529108</t>
-  </si>
-  <si>
-    <t>NORELIS ISABEL SAENZ OTERO</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>30771473</t>
-  </si>
-  <si>
-    <t>BETTY DEL SOCORRO LUNA CORONADO</t>
-  </si>
-  <si>
-    <t>45499444</t>
-  </si>
-  <si>
-    <t>MARIA TRINIDAD BLANCO ARIZA</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -512,7 +503,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -525,9 +518,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -727,23 +718,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -771,10 +762,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,7 +818,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C84CC3-C05F-E987-3D94-C06FC9A9780E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FA7EDD-B1A2-9468-13C9-6CA73BD8D08C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,8 +1169,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8EB5CF-10F6-4A9F-9F98-45F56BBCF412}">
-  <dimension ref="B2:J183"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC81748-D624-4D11-A39C-F82EC9DAF776}">
+  <dimension ref="B2:J173"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1190,7 +1181,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1203,7 +1194,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1248,7 +1239,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1280,12 +1271,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4723256</v>
+        <v>4429250</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1296,17 +1287,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1333,13 +1324,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1356,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1379,7 +1370,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1402,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1425,7 +1416,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1448,7 +1439,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1471,7 +1462,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1485,19 +1476,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F22" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G22" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1508,19 +1499,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F23" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G23" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1531,19 +1522,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G24" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1554,19 +1545,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G25" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1577,19 +1568,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G26" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1600,19 +1591,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G27" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1623,19 +1614,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G28" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1646,19 +1637,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G29" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1669,19 +1660,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G30" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1692,19 +1683,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G31" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1715,19 +1706,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G32" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1738,19 +1729,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G33" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1761,19 +1752,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G34" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1784,19 +1775,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G35" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1807,19 +1798,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G36" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1830,19 +1821,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G37" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1853,19 +1844,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G38" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1876,19 +1867,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G39" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1899,19 +1890,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G40" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1922,19 +1913,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>27707</v>
+        <v>24640</v>
       </c>
       <c r="G41" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1945,19 +1936,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1968,19 +1959,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1991,19 +1982,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2014,19 +2005,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2037,19 +2028,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2060,19 +2051,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2083,19 +2074,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2106,19 +2097,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2129,19 +2120,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2152,19 +2143,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2175,19 +2166,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2198,19 +2189,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2221,19 +2212,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2244,19 +2235,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2267,19 +2258,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2290,19 +2281,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2313,19 +2304,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2336,19 +2327,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2359,19 +2350,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2382,19 +2373,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2405,19 +2396,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>27707</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>692676</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2428,19 +2419,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2451,19 +2442,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2474,19 +2465,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2497,19 +2488,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2520,19 +2511,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2543,19 +2534,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2566,13 +2557,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2589,13 +2580,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2612,13 +2603,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2635,13 +2626,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2658,13 +2649,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2681,13 +2672,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2704,13 +2695,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2727,13 +2718,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2750,13 +2741,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2773,13 +2764,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2796,13 +2787,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2819,13 +2810,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2842,13 +2833,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2865,13 +2856,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2888,13 +2879,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2911,19 +2902,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G84" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2934,13 +2925,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2957,19 +2948,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2980,13 +2971,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -3003,19 +2994,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3026,13 +3017,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -3049,19 +3040,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G90" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3072,13 +3063,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3095,19 +3086,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3118,13 +3109,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3141,19 +3132,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3164,13 +3155,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3187,19 +3178,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3210,13 +3201,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3233,19 +3224,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3256,13 +3247,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3279,19 +3270,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3302,13 +3293,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3325,19 +3316,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3348,13 +3339,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3371,19 +3362,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3394,13 +3385,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3417,19 +3408,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3440,13 +3431,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="F107" s="18">
         <v>31249</v>
@@ -3463,19 +3454,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3486,13 +3477,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3509,19 +3500,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3532,13 +3523,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3555,19 +3546,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3578,13 +3569,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3601,19 +3592,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3624,13 +3615,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3647,19 +3638,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3670,13 +3661,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3693,19 +3684,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3716,13 +3707,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3739,19 +3730,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3762,13 +3753,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3785,19 +3776,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F122" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3808,13 +3799,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
@@ -3831,19 +3822,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3854,13 +3845,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
@@ -3877,19 +3868,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3900,13 +3891,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3923,19 +3914,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3946,13 +3937,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3969,19 +3960,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3992,13 +3983,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
@@ -4015,19 +4006,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G132" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4038,13 +4029,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -4061,19 +4052,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G134" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4084,13 +4075,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -4107,19 +4098,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F136" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G136" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4130,13 +4121,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4153,19 +4144,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F138" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G138" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4176,13 +4167,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4199,19 +4190,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F140" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G140" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4222,13 +4213,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4245,19 +4236,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F142" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G142" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4268,13 +4259,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4291,19 +4282,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G144" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4314,13 +4305,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4337,19 +4328,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F146" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G146" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4360,13 +4351,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4383,19 +4374,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F148" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G148" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4406,13 +4397,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4429,19 +4420,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F150" s="18">
-        <v>31249</v>
+        <v>27707</v>
       </c>
       <c r="G150" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4452,13 +4443,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4475,19 +4466,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F152" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G152" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4498,16 +4489,16 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F153" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G153" s="18">
         <v>781242</v>
@@ -4521,19 +4512,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F154" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G154" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4544,16 +4535,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F155" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G155" s="18">
         <v>781242</v>
@@ -4567,19 +4558,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F156" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G156" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4590,16 +4581,16 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F157" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G157" s="18">
         <v>781242</v>
@@ -4613,19 +4604,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F158" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G158" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4636,16 +4627,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F159" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G159" s="18">
         <v>781242</v>
@@ -4659,19 +4650,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F160" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G160" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4682,16 +4673,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F161" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G161" s="18">
         <v>781242</v>
@@ -4705,19 +4696,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F162" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G162" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4728,16 +4719,16 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F163" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
         <v>781242</v>
@@ -4751,19 +4742,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F164" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G164" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4774,16 +4765,16 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F165" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G165" s="18">
         <v>781242</v>
@@ -4797,305 +4788,75 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F166" s="18">
-        <v>24640</v>
+        <v>27707</v>
       </c>
       <c r="G166" s="18">
-        <v>781242</v>
+        <v>692676</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
       <c r="J166" s="20"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B167" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F167" s="18">
-        <v>24640</v>
-      </c>
-      <c r="G167" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B168" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E168" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F168" s="18">
-        <v>24640</v>
-      </c>
-      <c r="G168" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B169" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F169" s="18">
-        <v>24640</v>
-      </c>
-      <c r="G169" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B170" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E170" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F170" s="18">
-        <v>24640</v>
-      </c>
-      <c r="G170" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B171" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E171" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F171" s="18">
-        <v>24640</v>
-      </c>
-      <c r="G171" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
+      <c r="B167" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F167" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G167" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H167" s="25"/>
+      <c r="I167" s="25"/>
+      <c r="J167" s="26"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B172" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F172" s="18">
-        <v>24640</v>
-      </c>
-      <c r="G172" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
+      <c r="B172" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C172" s="32"/>
+      <c r="H172" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B173" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D173" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F173" s="18">
-        <v>24640</v>
-      </c>
-      <c r="G173" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B174" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F174" s="18">
-        <v>24640</v>
-      </c>
-      <c r="G174" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B175" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F175" s="18">
-        <v>24640</v>
-      </c>
-      <c r="G175" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B176" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F176" s="18">
-        <v>24640</v>
-      </c>
-      <c r="G176" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B177" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D177" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E177" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F177" s="24">
-        <v>24640</v>
-      </c>
-      <c r="G177" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H177" s="25"/>
-      <c r="I177" s="25"/>
-      <c r="J177" s="26"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B182" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C182" s="32"/>
-      <c r="H182" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B183" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C183" s="32"/>
-      <c r="H183" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
+      <c r="B173" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C173" s="32"/>
+      <c r="H173" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="H183:J183"/>
-    <mergeCell ref="H182:J182"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="H172:J172"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8903029554.xlsx
+++ b/Data/EC/NIT-8903029554.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD0808C3-6701-40DD-8EEB-6D6EC8B1A117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ECD2F55-F861-4869-8514-9F00E14F1224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8125A204-EF69-4697-A10F-437D2C919D5F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0032A099-707D-453C-A9DB-76D6826AC947}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="135">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -503,9 +506,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -518,7 +519,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -712,29 +715,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,19 +756,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,7 +827,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FA7EDD-B1A2-9468-13C9-6CA73BD8D08C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F13D44-59C8-9621-7AD9-4645EF5F04A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,8 +1178,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC81748-D624-4D11-A39C-F82EC9DAF776}">
-  <dimension ref="B2:J173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F52BB9B-2DB5-4192-9389-804540E74245}">
+  <dimension ref="B2:J175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1192,57 +1201,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8903029554</v>
       </c>
@@ -1271,12 +1280,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>4429250</v>
+        <v>4488206</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1287,17 +1296,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F13" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1324,13 +1333,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1343,18 +1352,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>24640</v>
       </c>
-      <c r="G16" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1366,18 +1375,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>24640</v>
       </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1389,18 +1398,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>24640</v>
       </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1412,18 +1421,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>24640</v>
       </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1435,18 +1444,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>24640</v>
       </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1458,18 +1467,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>24640</v>
       </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1481,18 +1490,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>24640</v>
       </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1504,18 +1513,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>24640</v>
       </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1527,18 +1536,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>24640</v>
       </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1550,18 +1559,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>24640</v>
       </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1573,18 +1582,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>24640</v>
       </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1596,18 +1605,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>24640</v>
       </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1619,18 +1628,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>24640</v>
       </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1642,18 +1651,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>24640</v>
       </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1665,18 +1674,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>24640</v>
       </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1688,18 +1697,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>24640</v>
       </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1711,18 +1720,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>24640</v>
       </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1734,18 +1743,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>24640</v>
       </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1757,18 +1766,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>24640</v>
       </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1780,18 +1789,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>24640</v>
       </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1803,18 +1812,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>24640</v>
       </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1826,18 +1835,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>24640</v>
       </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1849,18 +1858,18 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>24640</v>
       </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1872,18 +1881,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>24640</v>
       </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1895,18 +1904,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>24640</v>
       </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1918,18 +1927,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>24640</v>
       </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1941,18 +1950,18 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1964,18 +1973,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1987,18 +1996,18 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -2010,18 +2019,18 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -2033,18 +2042,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -2056,18 +2065,18 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -2079,18 +2088,18 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -2102,18 +2111,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -2125,18 +2134,18 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2148,18 +2157,18 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2171,18 +2180,18 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2194,18 +2203,18 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G53" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G53" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2217,18 +2226,18 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G54" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G54" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2240,18 +2249,18 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G55" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G55" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2263,18 +2272,18 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G56" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G56" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2286,18 +2295,18 @@
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G57" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2309,18 +2318,18 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G58" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G58" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2332,18 +2341,18 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G59" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G59" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2355,18 +2364,18 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G60" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G60" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2378,18 +2387,18 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G61" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G61" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2401,18 +2410,18 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F62" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G62" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G62" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2424,18 +2433,18 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G63" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G63" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2447,18 +2456,18 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G64" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G64" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2470,18 +2479,18 @@
       <c r="D65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G65" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G65" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2493,18 +2502,18 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G66" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G66" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2516,18 +2525,18 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F67" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G67" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G67" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2539,18 +2548,18 @@
       <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F68" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G68" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G68" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2562,18 +2571,18 @@
       <c r="D69" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G69" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G69" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2585,18 +2594,18 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G70" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G70" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2608,18 +2617,18 @@
       <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G71" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G71" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2631,18 +2640,18 @@
       <c r="D72" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F72" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G72" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G72" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2654,18 +2663,18 @@
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F73" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G73" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G73" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2677,18 +2686,18 @@
       <c r="D74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F74" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G74" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G74" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2700,18 +2709,18 @@
       <c r="D75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F75" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G75" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G75" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2723,18 +2732,18 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F76" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G76" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G76" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2746,18 +2755,18 @@
       <c r="D77" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F77" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G77" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G77" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2769,18 +2778,18 @@
       <c r="D78" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F78" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G78" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G78" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2792,18 +2801,18 @@
       <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F79" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G79" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G79" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2815,18 +2824,18 @@
       <c r="D80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F80" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G80" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G80" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2838,18 +2847,18 @@
       <c r="D81" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F81" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G81" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G81" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2861,18 +2870,18 @@
       <c r="D82" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F82" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G82" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G82" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2884,18 +2893,18 @@
       <c r="D83" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F83" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G83" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G83" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2907,18 +2916,18 @@
       <c r="D84" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="19">
         <v>27707</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G84" s="19">
         <v>692676</v>
       </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2930,18 +2939,18 @@
       <c r="D85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F85" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G85" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G85" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2953,18 +2962,18 @@
       <c r="D86" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F86" s="19">
         <v>27707</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G86" s="19">
         <v>692676</v>
       </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2976,18 +2985,18 @@
       <c r="D87" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F87" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G87" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G87" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2999,18 +3008,18 @@
       <c r="D88" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="19">
         <v>27707</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G88" s="19">
         <v>692676</v>
       </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -3022,18 +3031,18 @@
       <c r="D89" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F89" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G89" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G89" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -3045,18 +3054,18 @@
       <c r="D90" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="19">
         <v>27707</v>
       </c>
-      <c r="G90" s="18">
+      <c r="G90" s="19">
         <v>692676</v>
       </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -3068,18 +3077,18 @@
       <c r="D91" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F91" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G91" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G91" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -3091,18 +3100,18 @@
       <c r="D92" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="19">
         <v>27707</v>
       </c>
-      <c r="G92" s="18">
+      <c r="G92" s="19">
         <v>692676</v>
       </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -3114,18 +3123,18 @@
       <c r="D93" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F93" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G93" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G93" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -3137,18 +3146,18 @@
       <c r="D94" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F94" s="19">
         <v>27707</v>
       </c>
-      <c r="G94" s="18">
+      <c r="G94" s="19">
         <v>692676</v>
       </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3160,18 +3169,18 @@
       <c r="D95" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F95" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G95" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G95" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3183,18 +3192,18 @@
       <c r="D96" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="19">
         <v>27707</v>
       </c>
-      <c r="G96" s="18">
+      <c r="G96" s="19">
         <v>692676</v>
       </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3206,18 +3215,18 @@
       <c r="D97" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F97" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G97" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G97" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3229,18 +3238,18 @@
       <c r="D98" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="19">
         <v>27707</v>
       </c>
-      <c r="G98" s="18">
+      <c r="G98" s="19">
         <v>692676</v>
       </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3252,18 +3261,18 @@
       <c r="D99" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F99" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G99" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G99" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3275,18 +3284,18 @@
       <c r="D100" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F100" s="18">
+      <c r="F100" s="19">
         <v>27707</v>
       </c>
-      <c r="G100" s="18">
+      <c r="G100" s="19">
         <v>692676</v>
       </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3298,18 +3307,18 @@
       <c r="D101" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F101" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G101" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="F101" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G101" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3321,18 +3330,18 @@
       <c r="D102" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F102" s="18">
+      <c r="F102" s="19">
         <v>27707</v>
       </c>
-      <c r="G102" s="18">
+      <c r="G102" s="19">
         <v>692676</v>
       </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3344,18 +3353,18 @@
       <c r="D103" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F103" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G103" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G103" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3367,18 +3376,18 @@
       <c r="D104" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F104" s="18">
+      <c r="F104" s="19">
         <v>27707</v>
       </c>
-      <c r="G104" s="18">
+      <c r="G104" s="19">
         <v>692676</v>
       </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3390,18 +3399,18 @@
       <c r="D105" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F105" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G105" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G105" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3413,18 +3422,18 @@
       <c r="D106" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F106" s="18">
+      <c r="F106" s="19">
         <v>27707</v>
       </c>
-      <c r="G106" s="18">
+      <c r="G106" s="19">
         <v>692676</v>
       </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3436,18 +3445,18 @@
       <c r="D107" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F107" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G107" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="F107" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G107" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3459,18 +3468,18 @@
       <c r="D108" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F108" s="18">
+      <c r="F108" s="19">
         <v>27707</v>
       </c>
-      <c r="G108" s="18">
+      <c r="G108" s="19">
         <v>692676</v>
       </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3482,18 +3491,18 @@
       <c r="D109" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F109" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G109" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="F109" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G109" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3505,18 +3514,18 @@
       <c r="D110" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F110" s="18">
+      <c r="F110" s="19">
         <v>27707</v>
       </c>
-      <c r="G110" s="18">
+      <c r="G110" s="19">
         <v>692676</v>
       </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3528,18 +3537,18 @@
       <c r="D111" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F111" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G111" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="F111" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G111" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3551,18 +3560,18 @@
       <c r="D112" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F112" s="19">
         <v>27707</v>
       </c>
-      <c r="G112" s="18">
+      <c r="G112" s="19">
         <v>692676</v>
       </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3574,18 +3583,18 @@
       <c r="D113" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F113" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G113" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="F113" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G113" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3597,18 +3606,18 @@
       <c r="D114" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F114" s="18">
+      <c r="F114" s="19">
         <v>27707</v>
       </c>
-      <c r="G114" s="18">
+      <c r="G114" s="19">
         <v>692676</v>
       </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3620,18 +3629,18 @@
       <c r="D115" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F115" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G115" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="F115" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G115" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
@@ -3643,18 +3652,18 @@
       <c r="D116" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F116" s="18">
+      <c r="F116" s="19">
         <v>27707</v>
       </c>
-      <c r="G116" s="18">
+      <c r="G116" s="19">
         <v>692676</v>
       </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
@@ -3666,18 +3675,18 @@
       <c r="D117" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F117" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G117" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="F117" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G117" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
@@ -3689,18 +3698,18 @@
       <c r="D118" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F118" s="18">
+      <c r="F118" s="19">
         <v>27707</v>
       </c>
-      <c r="G118" s="18">
+      <c r="G118" s="19">
         <v>692676</v>
       </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
@@ -3712,18 +3721,18 @@
       <c r="D119" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F119" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G119" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="F119" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G119" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
@@ -3735,18 +3744,18 @@
       <c r="D120" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F120" s="18">
+      <c r="F120" s="19">
         <v>27707</v>
       </c>
-      <c r="G120" s="18">
+      <c r="G120" s="19">
         <v>692676</v>
       </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
@@ -3758,18 +3767,18 @@
       <c r="D121" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F121" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G121" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="F121" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G121" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
@@ -3781,18 +3790,18 @@
       <c r="D122" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F122" s="18">
+      <c r="F122" s="19">
         <v>27707</v>
       </c>
-      <c r="G122" s="18">
+      <c r="G122" s="19">
         <v>692676</v>
       </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
@@ -3804,18 +3813,18 @@
       <c r="D123" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F123" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G123" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="F123" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G123" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
@@ -3827,18 +3836,18 @@
       <c r="D124" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F124" s="18">
+      <c r="F124" s="19">
         <v>27707</v>
       </c>
-      <c r="G124" s="18">
+      <c r="G124" s="19">
         <v>692676</v>
       </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
@@ -3850,18 +3859,18 @@
       <c r="D125" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F125" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G125" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
+      <c r="F125" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G125" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
@@ -3873,18 +3882,18 @@
       <c r="D126" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F126" s="18">
+      <c r="F126" s="19">
         <v>27707</v>
       </c>
-      <c r="G126" s="18">
+      <c r="G126" s="19">
         <v>692676</v>
       </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
@@ -3896,18 +3905,18 @@
       <c r="D127" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F127" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G127" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
+      <c r="F127" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G127" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
@@ -3919,18 +3928,18 @@
       <c r="D128" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F128" s="18">
+      <c r="F128" s="19">
         <v>27707</v>
       </c>
-      <c r="G128" s="18">
+      <c r="G128" s="19">
         <v>692676</v>
       </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
@@ -3942,18 +3951,18 @@
       <c r="D129" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F129" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G129" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
+      <c r="F129" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G129" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="21"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
@@ -3965,18 +3974,18 @@
       <c r="D130" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F130" s="18">
+      <c r="F130" s="19">
         <v>27707</v>
       </c>
-      <c r="G130" s="18">
+      <c r="G130" s="19">
         <v>692676</v>
       </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="21"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
@@ -3988,18 +3997,18 @@
       <c r="D131" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F131" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G131" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
+      <c r="F131" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G131" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
@@ -4011,18 +4020,18 @@
       <c r="D132" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F132" s="18">
+      <c r="F132" s="19">
         <v>27707</v>
       </c>
-      <c r="G132" s="18">
+      <c r="G132" s="19">
         <v>692676</v>
       </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="21"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
@@ -4034,18 +4043,18 @@
       <c r="D133" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F133" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G133" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
+      <c r="F133" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G133" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
@@ -4057,18 +4066,18 @@
       <c r="D134" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F134" s="18">
+      <c r="F134" s="19">
         <v>27707</v>
       </c>
-      <c r="G134" s="18">
+      <c r="G134" s="19">
         <v>692676</v>
       </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="21"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
@@ -4080,18 +4089,18 @@
       <c r="D135" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F135" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G135" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="F135" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G135" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="21"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
@@ -4103,18 +4112,18 @@
       <c r="D136" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F136" s="18">
+      <c r="F136" s="19">
         <v>27707</v>
       </c>
-      <c r="G136" s="18">
+      <c r="G136" s="19">
         <v>692676</v>
       </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="21"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
@@ -4126,18 +4135,18 @@
       <c r="D137" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F137" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G137" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
+      <c r="F137" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G137" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="21"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
@@ -4149,18 +4158,18 @@
       <c r="D138" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F138" s="18">
+      <c r="F138" s="19">
         <v>27707</v>
       </c>
-      <c r="G138" s="18">
+      <c r="G138" s="19">
         <v>692676</v>
       </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="21"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
@@ -4172,18 +4181,18 @@
       <c r="D139" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F139" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G139" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
+      <c r="F139" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G139" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="21"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
@@ -4195,18 +4204,18 @@
       <c r="D140" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F140" s="18">
+      <c r="F140" s="19">
         <v>27707</v>
       </c>
-      <c r="G140" s="18">
+      <c r="G140" s="19">
         <v>692676</v>
       </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="21"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
@@ -4218,18 +4227,18 @@
       <c r="D141" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F141" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G141" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
+      <c r="F141" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G141" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="21"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
@@ -4241,18 +4250,18 @@
       <c r="D142" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F142" s="18">
+      <c r="F142" s="19">
         <v>27707</v>
       </c>
-      <c r="G142" s="18">
+      <c r="G142" s="19">
         <v>692676</v>
       </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="21"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
@@ -4264,18 +4273,18 @@
       <c r="D143" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F143" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G143" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
+      <c r="F143" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G143" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="21"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
@@ -4287,18 +4296,18 @@
       <c r="D144" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F144" s="18">
+      <c r="F144" s="19">
         <v>27707</v>
       </c>
-      <c r="G144" s="18">
+      <c r="G144" s="19">
         <v>692676</v>
       </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="21"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
@@ -4310,18 +4319,18 @@
       <c r="D145" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F145" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G145" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
+      <c r="F145" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G145" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
@@ -4333,18 +4342,18 @@
       <c r="D146" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F146" s="18">
+      <c r="F146" s="19">
         <v>27707</v>
       </c>
-      <c r="G146" s="18">
+      <c r="G146" s="19">
         <v>692676</v>
       </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="21"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
@@ -4356,18 +4365,18 @@
       <c r="D147" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F147" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G147" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
+      <c r="F147" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G147" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="21"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
@@ -4379,18 +4388,18 @@
       <c r="D148" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F148" s="18">
+      <c r="F148" s="19">
         <v>27707</v>
       </c>
-      <c r="G148" s="18">
+      <c r="G148" s="19">
         <v>692676</v>
       </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="21"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
@@ -4402,18 +4411,18 @@
       <c r="D149" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F149" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G149" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
+      <c r="F149" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G149" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="21"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
@@ -4425,18 +4434,18 @@
       <c r="D150" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F150" s="18">
+      <c r="F150" s="19">
         <v>27707</v>
       </c>
-      <c r="G150" s="18">
+      <c r="G150" s="19">
         <v>692676</v>
       </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="21"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
@@ -4448,18 +4457,18 @@
       <c r="D151" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F151" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G151" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
+      <c r="F151" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G151" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
@@ -4471,18 +4480,18 @@
       <c r="D152" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F152" s="18">
+      <c r="F152" s="19">
         <v>27707</v>
       </c>
-      <c r="G152" s="18">
+      <c r="G152" s="19">
         <v>692676</v>
       </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="21"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
@@ -4494,18 +4503,18 @@
       <c r="D153" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F153" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G153" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
+      <c r="F153" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G153" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="21"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
@@ -4517,18 +4526,18 @@
       <c r="D154" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F154" s="18">
+      <c r="F154" s="19">
         <v>27707</v>
       </c>
-      <c r="G154" s="18">
+      <c r="G154" s="19">
         <v>692676</v>
       </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="21"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
@@ -4540,18 +4549,18 @@
       <c r="D155" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F155" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G155" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
+      <c r="F155" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G155" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="21"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
@@ -4563,18 +4572,18 @@
       <c r="D156" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F156" s="18">
+      <c r="F156" s="19">
         <v>27707</v>
       </c>
-      <c r="G156" s="18">
+      <c r="G156" s="19">
         <v>692676</v>
       </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="21"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
@@ -4586,18 +4595,18 @@
       <c r="D157" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F157" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G157" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
+      <c r="F157" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G157" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="21"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
@@ -4609,18 +4618,18 @@
       <c r="D158" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F158" s="18">
+      <c r="F158" s="19">
         <v>27707</v>
       </c>
-      <c r="G158" s="18">
+      <c r="G158" s="19">
         <v>692676</v>
       </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="21"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
@@ -4632,18 +4641,18 @@
       <c r="D159" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F159" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G159" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
+      <c r="F159" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G159" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="21"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
@@ -4655,18 +4664,18 @@
       <c r="D160" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F160" s="18">
+      <c r="F160" s="19">
         <v>27707</v>
       </c>
-      <c r="G160" s="18">
+      <c r="G160" s="19">
         <v>692676</v>
       </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="21"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
@@ -4678,18 +4687,18 @@
       <c r="D161" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E161" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F161" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G161" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
+      <c r="F161" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G161" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="21"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
@@ -4701,18 +4710,18 @@
       <c r="D162" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F162" s="18">
+      <c r="F162" s="19">
         <v>27707</v>
       </c>
-      <c r="G162" s="18">
+      <c r="G162" s="19">
         <v>692676</v>
       </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="21"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
@@ -4724,18 +4733,18 @@
       <c r="D163" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F163" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G163" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
+      <c r="F163" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G163" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="21"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
@@ -4747,18 +4756,18 @@
       <c r="D164" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F164" s="18">
+      <c r="F164" s="19">
         <v>27707</v>
       </c>
-      <c r="G164" s="18">
+      <c r="G164" s="19">
         <v>692676</v>
       </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="21"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
@@ -4770,18 +4779,18 @@
       <c r="D165" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F165" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G165" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
+      <c r="F165" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G165" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="21"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
@@ -4793,70 +4802,116 @@
       <c r="D166" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F166" s="18">
+      <c r="F166" s="19">
         <v>27707</v>
       </c>
-      <c r="G166" s="18">
+      <c r="G166" s="19">
         <v>692676</v>
       </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="21"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B167" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E167" s="22" t="s">
+      <c r="B167" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F167" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G167" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H167" s="25"/>
-      <c r="I167" s="25"/>
-      <c r="J167" s="26"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B172" s="32" t="s">
+      <c r="F167" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G167" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="21"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B168" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F168" s="19">
+        <v>27707</v>
+      </c>
+      <c r="G168" s="19">
+        <v>692676</v>
+      </c>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="21"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B169" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F169" s="26">
+        <v>31249</v>
+      </c>
+      <c r="G169" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="28"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B174" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C174" s="34"/>
+      <c r="H174" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B175" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C172" s="32"/>
-      <c r="H172" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B173" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C173" s="32"/>
-      <c r="H173" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
+      <c r="C175" s="34"/>
+      <c r="H175" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="H172:J172"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="H175:J175"/>
+    <mergeCell ref="H174:J174"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
